--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_26_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_26_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34959.20905792705</v>
+        <v>6926995.92743843</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34959.20905792705</v>
+        <v>6926995.92743843</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18142.58775470071</v>
+        <v>1094760.873062561</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18142.58775470071</v>
+        <v>1094760.873062561</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190537261.644256</v>
+        <v>49500377.81385773</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11690.20969719334</v>
+        <v>1305246.008784151</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21393.15147755793</v>
+        <v>2281263.215041911</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31096.09325792251</v>
+        <v>3257280.421299673</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41217.79582546033</v>
+        <v>4189980.441993494</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51462.66014688094</v>
+        <v>5133525.915108539</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>61526.19869812913</v>
+        <v>6084061.528383439</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>71582.56334957236</v>
+        <v>7032910.90711411</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>81638.92800101569</v>
+        <v>7981760.285844778</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>91695.87538990639</v>
+        <v>8930081.542399283</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>101752.1998977908</v>
+        <v>9878537.474116664</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>111808.5244056747</v>
+        <v>10826993.40583406</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>121864.848913558</v>
+        <v>11775449.33755156</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>131920.7644220109</v>
+        <v>12723905.26926904</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>141977.4979293256</v>
+        <v>13672361.20098631</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>152033.4134377796</v>
+        <v>14620817.13270363</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>276.0000000000559</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>12.00000000005508</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
